--- a/generated_docs/WR_89830464_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89830464_WeekEnding_072725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I97"/>
+  <dimension ref="A2:I99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 07/30/2025 01:48 PM</t>
+          <t>Report Generated On: 08/16/2025 12:48 AM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>20910.63</v>
+        <v>21302.29</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="C10" s="6" t="inlineStr">
         <is>
-          <t>07/25/2025 to 07/27/25</t>
+          <t>07/21/2025 to 07/27/25</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -1345,17 +1345,17 @@
       </c>
       <c r="B37" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C37" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D37" s="9" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E37" s="9" t="inlineStr">
@@ -1364,11 +1364,11 @@
         </is>
       </c>
       <c r="F37" s="10" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G37" s="10" t="inlineStr"/>
       <c r="H37" s="11" t="n">
-        <v>95.7</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="38">
@@ -1379,7 +1379,7 @@
       </c>
       <c r="B38" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C38" s="12" t="inlineStr">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="D38" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E38" s="12" t="inlineStr">
@@ -1398,22 +1398,22 @@
         </is>
       </c>
       <c r="F38" s="13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G38" s="13" t="inlineStr"/>
       <c r="H38" s="14" t="n">
-        <v>648.53</v>
+        <v>95.7</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="inlineStr">
         <is>
-          <t>Point 24</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B39" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C39" s="9" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="D39" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E39" s="9" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="G39" s="10" t="inlineStr"/>
       <c r="H39" s="11" t="n">
-        <v>216.17</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="40">
@@ -1447,17 +1447,17 @@
       </c>
       <c r="B40" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
       <c r="C40" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Trans</t>
         </is>
       </c>
       <c r="D40" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
       <c r="E40" s="12" t="inlineStr">
@@ -1470,18 +1470,18 @@
       </c>
       <c r="G40" s="13" t="inlineStr"/>
       <c r="H40" s="14" t="n">
-        <v>286.25</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="9" t="inlineStr">
         <is>
-          <t>Point 23</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B41" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C41" s="9" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="D41" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E41" s="9" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="G41" s="10" t="inlineStr"/>
       <c r="H41" s="11" t="n">
-        <v>110.74</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="42">
@@ -1515,7 +1515,7 @@
       </c>
       <c r="B42" s="12" t="inlineStr">
         <is>
-          <t>GYF-38-D-78P-EP</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C42" s="12" t="inlineStr">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="D42" s="12" t="inlineStr">
         <is>
-          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E42" s="12" t="inlineStr">
@@ -1534,11 +1534,11 @@
         </is>
       </c>
       <c r="F42" s="13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G42" s="13" t="inlineStr"/>
       <c r="H42" s="14" t="n">
-        <v>158.7</v>
+        <v>286.25</v>
       </c>
     </row>
     <row r="43">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="B43" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C43" s="9" t="inlineStr">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="D43" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E43" s="9" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="G43" s="10" t="inlineStr"/>
       <c r="H43" s="11" t="n">
-        <v>478.55</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="44">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="B44" s="12" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
       <c r="C44" s="12" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="D44" s="12" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
       <c r="E44" s="12" t="inlineStr">
@@ -1602,11 +1602,11 @@
         </is>
       </c>
       <c r="F44" s="13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G44" s="13" t="inlineStr"/>
       <c r="H44" s="14" t="n">
-        <v>331.08</v>
+        <v>158.7</v>
       </c>
     </row>
     <row r="45">
@@ -1617,17 +1617,17 @@
       </c>
       <c r="B45" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-ALA-RS</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C45" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D45" s="9" t="inlineStr">
         <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E45" s="9" t="inlineStr">
@@ -1636,11 +1636,11 @@
         </is>
       </c>
       <c r="F45" s="10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45" s="10" t="inlineStr"/>
       <c r="H45" s="11" t="n">
-        <v>391.66</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="46">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="B46" s="12" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C46" s="12" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="D46" s="12" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E46" s="12" t="inlineStr">
@@ -1670,11 +1670,11 @@
         </is>
       </c>
       <c r="F46" s="13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G46" s="13" t="inlineStr"/>
       <c r="H46" s="14" t="n">
-        <v>55.18</v>
+        <v>331.08</v>
       </c>
     </row>
     <row r="47">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="B47" s="9" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C47" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D47" s="9" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E47" s="9" t="inlineStr">
@@ -1704,32 +1704,32 @@
         </is>
       </c>
       <c r="F47" s="10" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G47" s="10" t="inlineStr"/>
       <c r="H47" s="11" t="n">
-        <v>2003.75</v>
+        <v>391.66</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="12" t="inlineStr">
         <is>
-          <t>Point 24</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B48" s="12" t="inlineStr">
         <is>
-          <t>DEC-20AL</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C48" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D48" s="12" t="inlineStr">
         <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E48" s="12" t="inlineStr">
@@ -1738,32 +1738,32 @@
         </is>
       </c>
       <c r="F48" s="13" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G48" s="13" t="inlineStr"/>
       <c r="H48" s="14" t="n">
-        <v>951.5</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="inlineStr">
         <is>
-          <t>Point 24</t>
+          <t>Point 23</t>
         </is>
       </c>
       <c r="B49" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C49" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D49" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E49" s="9" t="inlineStr">
@@ -1772,32 +1772,32 @@
         </is>
       </c>
       <c r="F49" s="10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G49" s="10" t="inlineStr"/>
       <c r="H49" s="11" t="n">
-        <v>103.2</v>
+        <v>2003.75</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="12" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B50" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C50" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D50" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E50" s="12" t="inlineStr">
@@ -1806,32 +1806,32 @@
         </is>
       </c>
       <c r="F50" s="13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G50" s="13" t="inlineStr"/>
       <c r="H50" s="14" t="n">
-        <v>31.72</v>
+        <v>951.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="9" t="inlineStr">
         <is>
-          <t>Point 25</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B51" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C51" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D51" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E51" s="9" t="inlineStr">
@@ -1840,11 +1840,11 @@
         </is>
       </c>
       <c r="F51" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G51" s="10" t="inlineStr"/>
       <c r="H51" s="11" t="n">
-        <v>27.6</v>
+        <v>103.2</v>
       </c>
     </row>
     <row r="52">
@@ -1855,7 +1855,7 @@
       </c>
       <c r="B52" s="12" t="inlineStr">
         <is>
-          <t>SWI-15-CO1-100-H</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C52" s="12" t="inlineStr">
@@ -1865,7 +1865,7 @@
       </c>
       <c r="D52" s="12" t="inlineStr">
         <is>
-          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E52" s="12" t="inlineStr">
@@ -1878,145 +1878,145 @@
       </c>
       <c r="G52" s="13" t="inlineStr"/>
       <c r="H52" s="14" t="n">
+        <v>31.72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B53" s="9" t="inlineStr">
+        <is>
+          <t>CND-S2O</t>
+        </is>
+      </c>
+      <c r="C53" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #2 Open</t>
+        </is>
+      </c>
+      <c r="E53" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F53" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10" t="inlineStr"/>
+      <c r="H53" s="11" t="n">
+        <v>27.6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="12" t="inlineStr">
+        <is>
+          <t>Point 25</t>
+        </is>
+      </c>
+      <c r="B54" s="12" t="inlineStr">
+        <is>
+          <t>SWI-15-CO1-100-H</t>
+        </is>
+      </c>
+      <c r="C54" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D54" s="12" t="inlineStr">
+        <is>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
+        </is>
+      </c>
+      <c r="E54" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F54" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="13" t="inlineStr"/>
+      <c r="H54" s="14" t="n">
         <v>62.42</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="15" t="inlineStr">
+    <row r="55">
+      <c r="A55" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H53" s="16" t="n">
-        <v>7586.35</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="7" t="inlineStr">
+      <c r="H55" s="16" t="n">
+        <v>7978.01</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="7" t="inlineStr">
         <is>
           <t>Friday (07/25/2025)</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="8" t="inlineStr">
+    <row r="59">
+      <c r="A59" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B57" s="8" t="inlineStr">
+      <c r="B59" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C57" s="8" t="inlineStr">
+      <c r="C59" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D57" s="8" t="inlineStr">
+      <c r="D59" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E57" s="8" t="inlineStr">
+      <c r="E59" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F57" s="8" t="inlineStr">
+      <c r="F59" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G57" s="8" t="inlineStr">
+      <c r="G59" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H57" s="8" t="inlineStr">
+      <c r="H59" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="9" t="inlineStr">
-        <is>
-          <t>Point 16</t>
-        </is>
-      </c>
-      <c r="B58" s="9" t="inlineStr">
-        <is>
-          <t>PLA-CUT</t>
-        </is>
-      </c>
-      <c r="C58" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D58" s="9" t="inlineStr">
-        <is>
-          <t>PLA,Cut Off Pole Top</t>
-        </is>
-      </c>
-      <c r="E58" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F58" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="10" t="inlineStr"/>
-      <c r="H58" s="11" t="n">
-        <v>216.17</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="12" t="inlineStr">
-        <is>
-          <t>Point 13</t>
-        </is>
-      </c>
-      <c r="B59" s="12" t="inlineStr">
-        <is>
-          <t>CNC-HTA-10</t>
-        </is>
-      </c>
-      <c r="C59" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D59" s="12" t="inlineStr">
-        <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
-        </is>
-      </c>
-      <c r="E59" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F59" s="13" t="n">
-        <v>15</v>
-      </c>
-      <c r="G59" s="13" t="inlineStr"/>
-      <c r="H59" s="14" t="n">
-        <v>143.55</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 16</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2035,17 +2035,17 @@
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>47.85</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
@@ -2069,22 +2069,22 @@
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>133.98</v>
+        <v>143.55</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2103,32 +2103,32 @@
         </is>
       </c>
       <c r="F62" s="10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>648.53</v>
+        <v>47.85</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>ALB-W-18-A-1-F</t>
+          <t>CNC-HTA-10</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
+          <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2137,32 +2137,32 @@
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>118.38</v>
+        <v>133.98</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>ALT-400-HFMSGL</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>400W MultiVolt MH Fldlt,Slipfit,Grey,Pul</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>128.82</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="65">
@@ -2186,17 +2186,17 @@
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>ALB-W-18-A-1-F</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2209,7 +2209,7 @@
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>31.72</v>
+        <v>118.38</v>
       </c>
     </row>
     <row r="66">
@@ -2220,17 +2220,17 @@
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>ALT-400-HFMSGL</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>400W MultiVolt MH Fldlt,Slipfit,Grey,Pul</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>27.6</v>
+        <v>128.82</v>
       </c>
     </row>
     <row r="67">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2277,7 +2277,7 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>648.53</v>
+        <v>31.72</v>
       </c>
     </row>
     <row r="68">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>110.74</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="69">
@@ -2322,7 +2322,7 @@
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2345,7 +2345,7 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>216.17</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="70">
@@ -2356,7 +2356,7 @@
       </c>
       <c r="B70" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C70" s="9" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="D70" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E70" s="9" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="G70" s="10" t="inlineStr"/>
       <c r="H70" s="11" t="n">
-        <v>94.17</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="71">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="B71" s="12" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>PLA-CUT</t>
         </is>
       </c>
       <c r="C71" s="12" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
       <c r="E71" s="12" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="G71" s="13" t="inlineStr"/>
       <c r="H71" s="14" t="n">
-        <v>478.55</v>
+        <v>216.17</v>
       </c>
     </row>
     <row r="72">
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B72" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C72" s="9" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="D72" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E72" s="9" t="inlineStr">
@@ -2443,11 +2443,11 @@
         </is>
       </c>
       <c r="F72" s="10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G72" s="10" t="inlineStr"/>
       <c r="H72" s="11" t="n">
-        <v>165.54</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="73">
@@ -2458,17 +2458,17 @@
       </c>
       <c r="B73" s="12" t="inlineStr">
         <is>
-          <t>SVC-2-TP-ALA-RS</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C73" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D73" s="12" t="inlineStr">
         <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E73" s="12" t="inlineStr">
@@ -2477,11 +2477,11 @@
         </is>
       </c>
       <c r="F73" s="13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G73" s="13" t="inlineStr"/>
       <c r="H73" s="14" t="n">
-        <v>783.3200000000001</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="74">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="B74" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C74" s="9" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="D74" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E74" s="9" t="inlineStr">
@@ -2511,11 +2511,11 @@
         </is>
       </c>
       <c r="F74" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G74" s="10" t="inlineStr"/>
       <c r="H74" s="11" t="n">
-        <v>110.36</v>
+        <v>165.54</v>
       </c>
     </row>
     <row r="75">
@@ -2526,17 +2526,17 @@
       </c>
       <c r="B75" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C75" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D75" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E75" s="12" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="G75" s="13" t="inlineStr"/>
       <c r="H75" s="14" t="n">
-        <v>1145</v>
+        <v>783.3200000000001</v>
       </c>
     </row>
     <row r="76">
@@ -2560,7 +2560,7 @@
       </c>
       <c r="B76" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C76" s="9" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="D76" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E76" s="9" t="inlineStr">
@@ -2579,11 +2579,11 @@
         </is>
       </c>
       <c r="F76" s="10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" s="10" t="inlineStr"/>
       <c r="H76" s="11" t="n">
-        <v>62.42</v>
+        <v>110.36</v>
       </c>
     </row>
     <row r="77">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="B77" s="12" t="inlineStr">
         <is>
-          <t>XFR-25-72-120-1B</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C77" s="12" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="D77" s="12" t="inlineStr">
         <is>
-          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E77" s="12" t="inlineStr">
@@ -2613,32 +2613,32 @@
         </is>
       </c>
       <c r="F77" s="13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G77" s="13" t="inlineStr"/>
       <c r="H77" s="14" t="n">
-        <v>234</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="9" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B78" s="9" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C78" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D78" s="9" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E78" s="9" t="inlineStr">
@@ -2651,28 +2651,28 @@
       </c>
       <c r="G78" s="10" t="inlineStr"/>
       <c r="H78" s="11" t="n">
-        <v>17.37</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="12" t="inlineStr">
         <is>
-          <t>Point 14</t>
+          <t>Point 13</t>
         </is>
       </c>
       <c r="B79" s="12" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>XFR-25-72-120-1B</t>
         </is>
       </c>
       <c r="C79" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D79" s="12" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
       <c r="E79" s="12" t="inlineStr">
@@ -2685,7 +2685,7 @@
       </c>
       <c r="G79" s="13" t="inlineStr"/>
       <c r="H79" s="14" t="n">
-        <v>6.17</v>
+        <v>234</v>
       </c>
     </row>
     <row r="80">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="B80" s="9" t="inlineStr">
         <is>
-          <t>EQL-1-4-C-2-S-X</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C80" s="9" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="D80" s="9" t="inlineStr">
         <is>
-          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E80" s="9" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="G80" s="10" t="inlineStr"/>
       <c r="H80" s="11" t="n">
-        <v>116</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="81">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="B81" s="12" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C81" s="12" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="D81" s="12" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E81" s="12" t="inlineStr">
@@ -2753,7 +2753,7 @@
       </c>
       <c r="G81" s="13" t="inlineStr"/>
       <c r="H81" s="14" t="n">
-        <v>31.08</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="82">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="B82" s="9" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
       <c r="C82" s="9" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="D82" s="9" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
       <c r="E82" s="9" t="inlineStr">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="G82" s="10" t="inlineStr"/>
       <c r="H82" s="11" t="n">
-        <v>31.08</v>
+        <v>116</v>
       </c>
     </row>
     <row r="83">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="B83" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C83" s="12" t="inlineStr">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="D83" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E83" s="12" t="inlineStr">
@@ -2817,11 +2817,11 @@
         </is>
       </c>
       <c r="F83" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G83" s="13" t="inlineStr"/>
       <c r="H83" s="14" t="n">
-        <v>51.6</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="84">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="B84" s="9" t="inlineStr">
         <is>
-          <t>XCO-15-100-7</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C84" s="9" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="D84" s="9" t="inlineStr">
         <is>
-          <t>XCO,15kVPolymer,100 Amp,7kA</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E84" s="9" t="inlineStr">
@@ -2855,28 +2855,28 @@
       </c>
       <c r="G84" s="10" t="inlineStr"/>
       <c r="H84" s="11" t="n">
-        <v>26.52</v>
+        <v>31.08</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="12" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B85" s="12" t="inlineStr">
         <is>
-          <t>GND-CR-4</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C85" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D85" s="12" t="inlineStr">
         <is>
-          <t>GND,Cu Clad Rod,#4</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E85" s="12" t="inlineStr">
@@ -2885,32 +2885,32 @@
         </is>
       </c>
       <c r="F85" s="13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G85" s="13" t="inlineStr"/>
       <c r="H85" s="14" t="n">
-        <v>110.74</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 14</t>
         </is>
       </c>
       <c r="B86" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>XCO-15-100-7</t>
         </is>
       </c>
       <c r="C86" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D86" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
       <c r="E86" s="9" t="inlineStr">
@@ -2923,7 +2923,7 @@
       </c>
       <c r="G86" s="10" t="inlineStr"/>
       <c r="H86" s="11" t="n">
-        <v>94.17</v>
+        <v>26.52</v>
       </c>
     </row>
     <row r="87">
@@ -2934,7 +2934,7 @@
       </c>
       <c r="B87" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>GND-CR-4</t>
         </is>
       </c>
       <c r="C87" s="12" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="D87" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
       <c r="E87" s="12" t="inlineStr">
@@ -2957,7 +2957,7 @@
       </c>
       <c r="G87" s="13" t="inlineStr"/>
       <c r="H87" s="14" t="n">
-        <v>94.17</v>
+        <v>110.74</v>
       </c>
     </row>
     <row r="88">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B88" s="9" t="inlineStr">
         <is>
-          <t>POL-40-2</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C88" s="9" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D88" s="9" t="inlineStr">
         <is>
-          <t>Pole,40ft,Class 2</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E88" s="9" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="G88" s="10" t="inlineStr"/>
       <c r="H88" s="11" t="n">
-        <v>478.55</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="89">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="B89" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C89" s="12" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="D89" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E89" s="12" t="inlineStr">
@@ -3021,11 +3021,11 @@
         </is>
       </c>
       <c r="F89" s="13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G89" s="13" t="inlineStr"/>
       <c r="H89" s="14" t="n">
-        <v>275.9</v>
+        <v>94.17</v>
       </c>
     </row>
     <row r="90">
@@ -3036,17 +3036,17 @@
       </c>
       <c r="B90" s="9" t="inlineStr">
         <is>
-          <t>SVC-2-TP-ALA-RS</t>
+          <t>POL-40-2</t>
         </is>
       </c>
       <c r="C90" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D90" s="9" t="inlineStr">
         <is>
-          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
+          <t>Pole,40ft,Class 2</t>
         </is>
       </c>
       <c r="E90" s="9" t="inlineStr">
@@ -3059,7 +3059,7 @@
       </c>
       <c r="G90" s="10" t="inlineStr"/>
       <c r="H90" s="11" t="n">
-        <v>195.83</v>
+        <v>478.55</v>
       </c>
     </row>
     <row r="91">
@@ -3070,7 +3070,7 @@
       </c>
       <c r="B91" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>SAA-3-CV</t>
         </is>
       </c>
       <c r="C91" s="12" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="D91" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
       <c r="E91" s="12" t="inlineStr">
@@ -3089,11 +3089,11 @@
         </is>
       </c>
       <c r="F91" s="13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G91" s="13" t="inlineStr"/>
       <c r="H91" s="14" t="n">
-        <v>648.53</v>
+        <v>275.9</v>
       </c>
     </row>
     <row r="92">
@@ -3104,17 +3104,17 @@
       </c>
       <c r="B92" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
       <c r="C92" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="D92" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
       <c r="E92" s="9" t="inlineStr">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="G92" s="10" t="inlineStr"/>
       <c r="H92" s="11" t="n">
-        <v>55.18</v>
+        <v>195.83</v>
       </c>
     </row>
     <row r="93">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="B93" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>PLA-HDIG</t>
         </is>
       </c>
       <c r="C93" s="12" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="D93" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
       <c r="E93" s="12" t="inlineStr">
@@ -3157,32 +3157,32 @@
         </is>
       </c>
       <c r="F93" s="13" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G93" s="13" t="inlineStr"/>
       <c r="H93" s="14" t="n">
-        <v>1431.25</v>
+        <v>648.53</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B94" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C94" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D94" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E94" s="9" t="inlineStr">
@@ -3195,28 +3195,28 @@
       </c>
       <c r="G94" s="10" t="inlineStr"/>
       <c r="H94" s="11" t="n">
-        <v>31.08</v>
+        <v>55.18</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="12" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 15</t>
         </is>
       </c>
       <c r="B95" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C95" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D95" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E95" s="12" t="inlineStr">
@@ -3225,11 +3225,11 @@
         </is>
       </c>
       <c r="F95" s="13" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G95" s="13" t="inlineStr"/>
       <c r="H95" s="14" t="n">
-        <v>31.08</v>
+        <v>1431.25</v>
       </c>
     </row>
     <row r="96">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="B96" s="9" t="inlineStr">
         <is>
-          <t>SAA-DE-20</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C96" s="9" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="D96" s="9" t="inlineStr">
         <is>
-          <t>SAA,DE Clamp #4-2/0</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E96" s="9" t="inlineStr">
@@ -3259,33 +3259,100 @@
         </is>
       </c>
       <c r="F96" s="10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G96" s="10" t="inlineStr"/>
       <c r="H96" s="11" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B97" s="12" t="inlineStr">
+        <is>
+          <t>PIN-15-PTP-K</t>
+        </is>
+      </c>
+      <c r="C97" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D97" s="12" t="inlineStr">
+        <is>
+          <t>Pin,15kV,Pole top,Contaminated</t>
+        </is>
+      </c>
+      <c r="E97" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F97" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G97" s="13" t="inlineStr"/>
+      <c r="H97" s="14" t="n">
+        <v>31.08</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B98" s="9" t="inlineStr">
+        <is>
+          <t>SAA-DE-20</t>
+        </is>
+      </c>
+      <c r="C98" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D98" s="9" t="inlineStr">
+        <is>
+          <t>SAA,DE Clamp #4-2/0</t>
+        </is>
+      </c>
+      <c r="E98" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F98" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G98" s="10" t="inlineStr"/>
+      <c r="H98" s="11" t="n">
         <v>68.8</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="15" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H97" s="16" t="n">
+      <c r="H99" s="16" t="n">
         <v>9340.5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="A99:G99"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A97:G97"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A53:G53"/>
+    <mergeCell ref="A55:G55"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="A30:G30"/>
@@ -3293,6 +3360,7 @@
     <mergeCell ref="A33:H33"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A58:H58"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>

--- a/generated_docs/WR_89830464_WeekEnding_072725.xlsx
+++ b/generated_docs/WR_89830464_WeekEnding_072725.xlsx
@@ -539,7 +539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I99"/>
+  <dimension ref="A2:I129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -571,7 +571,7 @@
     <row r="5">
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>Report Generated On: 08/16/2025 12:48 AM</t>
+          <t>Report Generated On: 08/18/2025 09:48 PM</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>21302.29</v>
+        <v>0</v>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
@@ -614,7 +614,7 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
@@ -765,7 +765,7 @@
       </c>
       <c r="G16" s="10" t="inlineStr"/>
       <c r="H16" s="11" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -799,7 +799,7 @@
       </c>
       <c r="G17" s="13" t="inlineStr"/>
       <c r="H17" s="14" t="n">
-        <v>94.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -833,7 +833,7 @@
       </c>
       <c r="G18" s="10" t="inlineStr"/>
       <c r="H18" s="11" t="n">
-        <v>478.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -867,7 +867,7 @@
       </c>
       <c r="G19" s="13" t="inlineStr"/>
       <c r="H19" s="14" t="n">
-        <v>220.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -901,7 +901,7 @@
       </c>
       <c r="G20" s="10" t="inlineStr"/>
       <c r="H20" s="11" t="n">
-        <v>55.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -935,7 +935,7 @@
       </c>
       <c r="G21" s="13" t="inlineStr"/>
       <c r="H21" s="14" t="n">
-        <v>979.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -946,7 +946,7 @@
       </c>
       <c r="B22" s="9" t="inlineStr">
         <is>
-          <t>SVD-3-CV-C</t>
+          <t>SVC-VA</t>
         </is>
       </c>
       <c r="C22" s="9" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="D22" s="9" t="inlineStr">
         <is>
-          <t>SVD,3 inch,Clevis,Corr</t>
+          <t>SVC-Virtual Asset Capitalization</t>
         </is>
       </c>
       <c r="E22" s="9" t="inlineStr">
@@ -965,11 +965,11 @@
         </is>
       </c>
       <c r="F22" s="10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" s="10" t="inlineStr"/>
       <c r="H22" s="11" t="n">
-        <v>110.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -980,7 +980,7 @@
       </c>
       <c r="B23" s="12" t="inlineStr">
         <is>
-          <t>SVD-SG2</t>
+          <t>SVD-3-CV-C</t>
         </is>
       </c>
       <c r="C23" s="12" t="inlineStr">
@@ -990,7 +990,7 @@
       </c>
       <c r="D23" s="12" t="inlineStr">
         <is>
-          <t>SVD,Service Grip,#2</t>
+          <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
       <c r="E23" s="12" t="inlineStr">
@@ -999,32 +999,32 @@
         </is>
       </c>
       <c r="F23" s="13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G23" s="13" t="inlineStr"/>
       <c r="H23" s="14" t="n">
-        <v>1431.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B24" s="9" t="inlineStr">
         <is>
-          <t>DEG-2-SNA</t>
+          <t>SVD-SG2</t>
         </is>
       </c>
       <c r="C24" s="9" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D24" s="9" t="inlineStr">
         <is>
-          <t>DEG,#2,Secondary Neutral Al</t>
+          <t>SVD,Service Grip,#2</t>
         </is>
       </c>
       <c r="E24" s="9" t="inlineStr">
@@ -1033,32 +1033,32 @@
         </is>
       </c>
       <c r="F24" s="10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G24" s="10" t="inlineStr"/>
       <c r="H24" s="11" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="12" t="inlineStr">
         <is>
-          <t>Point 18</t>
+          <t>Point 17</t>
         </is>
       </c>
       <c r="B25" s="12" t="inlineStr">
         <is>
-          <t>DEG-4-PNA</t>
+          <t>TIE-4-ALH-F</t>
         </is>
       </c>
       <c r="C25" s="12" t="inlineStr">
         <is>
-          <t>Rem</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D25" s="12" t="inlineStr">
         <is>
-          <t>DEG,#4,Primary Neutral Al</t>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
         </is>
       </c>
       <c r="E25" s="12" t="inlineStr">
@@ -1067,11 +1067,11 @@
         </is>
       </c>
       <c r="F25" s="13" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G25" s="13" t="inlineStr"/>
       <c r="H25" s="14" t="n">
-        <v>95.15000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B26" s="9" t="inlineStr">
         <is>
-          <t>INS-15-P-S-C</t>
+          <t>DEG-2-SNA</t>
         </is>
       </c>
       <c r="C26" s="9" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="D26" s="9" t="inlineStr">
         <is>
-          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
+          <t>DEG,#2,Secondary Neutral Al</t>
         </is>
       </c>
       <c r="E26" s="9" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="G26" s="10" t="inlineStr"/>
       <c r="H26" s="11" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B27" s="12" t="inlineStr">
         <is>
-          <t>PIN-15-PTP-K</t>
+          <t>DEG-4-PNA</t>
         </is>
       </c>
       <c r="C27" s="12" t="inlineStr">
@@ -1126,7 +1126,7 @@
       </c>
       <c r="D27" s="12" t="inlineStr">
         <is>
-          <t>Pin,15kV,Pole top,Contaminated</t>
+          <t>DEG,#4,Primary Neutral Al</t>
         </is>
       </c>
       <c r="E27" s="12" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G27" s="13" t="inlineStr"/>
       <c r="H27" s="14" t="n">
-        <v>31.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="B28" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>INS-15-P-S-C</t>
         </is>
       </c>
       <c r="C28" s="9" t="inlineStr">
@@ -1160,7 +1160,7 @@
       </c>
       <c r="D28" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
       <c r="E28" s="9" t="inlineStr">
@@ -1173,7 +1173,7 @@
       </c>
       <c r="G28" s="10" t="inlineStr"/>
       <c r="H28" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B29" s="12" t="inlineStr">
         <is>
-          <t>SAA-3-CV</t>
+          <t>PIN-15-PTP-K</t>
         </is>
       </c>
       <c r="C29" s="12" t="inlineStr">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="D29" s="12" t="inlineStr">
         <is>
-          <t>SAA,3 inch,Clevis</t>
+          <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
       <c r="E29" s="12" t="inlineStr">
@@ -1203,830 +1203,941 @@
         </is>
       </c>
       <c r="F29" s="13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G29" s="13" t="inlineStr"/>
       <c r="H29" s="14" t="n">
-        <v>51.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="15" t="inlineStr">
+      <c r="A30" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B30" s="9" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D30" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E30" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F30" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="10" t="inlineStr"/>
+      <c r="H30" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="12" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B31" s="12" t="inlineStr">
+        <is>
+          <t>SAA-3-CV</t>
+        </is>
+      </c>
+      <c r="C31" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D31" s="12" t="inlineStr">
+        <is>
+          <t>SAA,3 inch,Clevis</t>
+        </is>
+      </c>
+      <c r="E31" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F31" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="G31" s="13" t="inlineStr"/>
+      <c r="H31" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="inlineStr">
+        <is>
+          <t>Point 18</t>
+        </is>
+      </c>
+      <c r="B32" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E32" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F32" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G32" s="10" t="inlineStr"/>
+      <c r="H32" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H30" s="16" t="n">
-        <v>3983.78</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="inlineStr">
+      <c r="H33" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
         <is>
           <t>Thursday (07/24/2025)</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="8" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="8" t="inlineStr">
         <is>
           <t>Point Number</t>
         </is>
       </c>
-      <c r="B34" s="8" t="inlineStr">
+      <c r="B37" s="8" t="inlineStr">
         <is>
           <t>Billable Unit Code</t>
         </is>
       </c>
-      <c r="C34" s="8" t="inlineStr">
+      <c r="C37" s="8" t="inlineStr">
         <is>
           <t>Work Type</t>
         </is>
       </c>
-      <c r="D34" s="8" t="inlineStr">
+      <c r="D37" s="8" t="inlineStr">
         <is>
           <t>Unit Description</t>
         </is>
       </c>
-      <c r="E34" s="8" t="inlineStr">
+      <c r="E37" s="8" t="inlineStr">
         <is>
           <t>Unit of Measure</t>
         </is>
       </c>
-      <c r="F34" s="8" t="inlineStr">
+      <c r="F37" s="8" t="inlineStr">
         <is>
           <t># Units</t>
         </is>
       </c>
-      <c r="G34" s="8" t="inlineStr">
+      <c r="G37" s="8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="H34" s="8" t="inlineStr">
+      <c r="H37" s="8" t="inlineStr">
         <is>
           <t>Pricing</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="9" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr">
         <is>
           <t>Point 25</t>
         </is>
       </c>
-      <c r="B35" s="9" t="inlineStr">
+      <c r="B38" s="9" t="inlineStr">
         <is>
           <t>CNA-SWITCH</t>
         </is>
       </c>
-      <c r="C35" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D35" s="9" t="inlineStr">
+      <c r="C38" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
         <is>
           <t>CNA,Overhead Switching</t>
         </is>
       </c>
-      <c r="E35" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F35" s="10" t="n">
+      <c r="E38" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F38" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="G35" s="10" t="inlineStr"/>
-      <c r="H35" s="11" t="n">
-        <v>843.04</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="12" t="inlineStr">
+      <c r="G38" s="10" t="inlineStr"/>
+      <c r="H38" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B36" s="12" t="inlineStr">
+      <c r="B39" s="12" t="inlineStr">
         <is>
           <t>ANC-DSC-16-96-D1</t>
         </is>
       </c>
-      <c r="C36" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D36" s="12" t="inlineStr">
+      <c r="C39" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D39" s="12" t="inlineStr">
         <is>
           <t>ANC,Disc,16in,96in,Db Eye 1in</t>
         </is>
       </c>
-      <c r="E36" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F36" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="13" t="inlineStr"/>
-      <c r="H36" s="14" t="n">
-        <v>790.5599999999999</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="9" t="inlineStr">
+      <c r="E39" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F39" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13" t="inlineStr"/>
+      <c r="H39" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B37" s="9" t="inlineStr">
+      <c r="B40" s="9" t="inlineStr">
         <is>
           <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
-      <c r="C37" s="9" t="inlineStr">
+      <c r="C40" s="9" t="inlineStr">
         <is>
           <t>Trans</t>
         </is>
       </c>
-      <c r="D37" s="9" t="inlineStr">
+      <c r="D40" s="9" t="inlineStr">
         <is>
           <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
-      <c r="E37" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F37" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10" t="inlineStr"/>
-      <c r="H37" s="11" t="n">
-        <v>195.83</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="12" t="inlineStr">
+      <c r="E40" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F40" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="10" t="inlineStr"/>
+      <c r="H40" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B38" s="12" t="inlineStr">
+      <c r="B41" s="12" t="inlineStr">
         <is>
           <t>CNC-HTA-10</t>
         </is>
       </c>
-      <c r="C38" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D38" s="12" t="inlineStr">
+      <c r="C41" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D41" s="12" t="inlineStr">
         <is>
           <t>Compression connector H-Tap Assembly 1/0</t>
         </is>
       </c>
-      <c r="E38" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F38" s="13" t="n">
+      <c r="E41" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F41" s="13" t="n">
         <v>10</v>
       </c>
-      <c r="G38" s="13" t="inlineStr"/>
-      <c r="H38" s="14" t="n">
-        <v>95.7</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="9" t="inlineStr">
+      <c r="G41" s="13" t="inlineStr"/>
+      <c r="H41" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B39" s="9" t="inlineStr">
+      <c r="B42" s="9" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C39" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D39" s="9" t="inlineStr">
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D42" s="9" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E39" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F39" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10" t="inlineStr"/>
-      <c r="H39" s="11" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="12" t="inlineStr">
+      <c r="E42" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F42" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="10" t="inlineStr"/>
+      <c r="H42" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B40" s="12" t="inlineStr">
+      <c r="B43" s="12" t="inlineStr">
         <is>
           <t>SVC-10-TP-AAA-RS</t>
         </is>
       </c>
-      <c r="C40" s="12" t="inlineStr">
+      <c r="C43" s="12" t="inlineStr">
         <is>
           <t>Trans</t>
         </is>
       </c>
-      <c r="D40" s="12" t="inlineStr">
+      <c r="D43" s="12" t="inlineStr">
         <is>
           <t>SVC,1/0,Trip,All Alum,Res</t>
         </is>
       </c>
-      <c r="E40" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F40" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="13" t="inlineStr"/>
-      <c r="H40" s="14" t="n">
-        <v>195.83</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="9" t="inlineStr">
+      <c r="E43" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F43" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="13" t="inlineStr"/>
+      <c r="H43" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="inlineStr">
         <is>
           <t>Point 24</t>
         </is>
       </c>
-      <c r="B41" s="9" t="inlineStr">
+      <c r="B44" s="9" t="inlineStr">
         <is>
           <t>PLA-CUT</t>
         </is>
       </c>
-      <c r="C41" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D41" s="9" t="inlineStr">
+      <c r="C44" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D44" s="9" t="inlineStr">
         <is>
           <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
-      <c r="E41" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F41" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10" t="inlineStr"/>
-      <c r="H41" s="11" t="n">
-        <v>216.17</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="12" t="inlineStr">
+      <c r="E44" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F44" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="10" t="inlineStr"/>
+      <c r="H44" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B42" s="12" t="inlineStr">
+      <c r="B45" s="12" t="inlineStr">
+        <is>
+          <t>ANC-DHM-10-84-D1</t>
+        </is>
+      </c>
+      <c r="C45" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D45" s="12" t="inlineStr">
+        <is>
+          <t>ANC,Dbl Hlx Mach,10in,84in,Db Eye 1in</t>
+        </is>
+      </c>
+      <c r="E45" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F45" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" s="13" t="inlineStr"/>
+      <c r="H45" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B46" s="9" t="inlineStr">
         <is>
           <t>DEC-20AL</t>
         </is>
       </c>
-      <c r="C42" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D42" s="12" t="inlineStr">
+      <c r="C46" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D46" s="9" t="inlineStr">
         <is>
           <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
-      <c r="E42" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F42" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="13" t="inlineStr"/>
-      <c r="H42" s="14" t="n">
-        <v>286.25</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="9" t="inlineStr">
+      <c r="E46" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F46" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="10" t="inlineStr"/>
+      <c r="H46" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B43" s="9" t="inlineStr">
+      <c r="B47" s="12" t="inlineStr">
         <is>
           <t>GND-CR-4</t>
         </is>
       </c>
-      <c r="C43" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D43" s="9" t="inlineStr">
+      <c r="C47" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D47" s="12" t="inlineStr">
         <is>
           <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
-      <c r="E43" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F43" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10" t="inlineStr"/>
-      <c r="H43" s="11" t="n">
-        <v>110.74</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="12" t="inlineStr">
+      <c r="E47" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F47" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="13" t="inlineStr"/>
+      <c r="H47" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B44" s="12" t="inlineStr">
+      <c r="B48" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C48" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E48" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F48" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G48" s="10" t="inlineStr"/>
+      <c r="H48" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B49" s="12" t="inlineStr">
+        <is>
+          <t>GYD-MPY</t>
+        </is>
+      </c>
+      <c r="C49" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D49" s="12" t="inlineStr">
+        <is>
+          <t>GYD,Marker-Plastic-Yellow</t>
+        </is>
+      </c>
+      <c r="E49" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F49" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="13" t="inlineStr"/>
+      <c r="H49" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B50" s="9" t="inlineStr">
         <is>
           <t>GYF-38-D-78P-EP</t>
         </is>
       </c>
-      <c r="C44" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D44" s="12" t="inlineStr">
+      <c r="C50" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="inlineStr">
         <is>
           <t>GYF,3/8,Down,78in Pole mt,EyePlate</t>
         </is>
       </c>
-      <c r="E44" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F44" s="13" t="n">
+      <c r="E50" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F50" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G44" s="13" t="inlineStr"/>
-      <c r="H44" s="14" t="n">
-        <v>158.7</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="9" t="inlineStr">
+      <c r="G50" s="10" t="inlineStr"/>
+      <c r="H50" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B45" s="9" t="inlineStr">
+      <c r="B51" s="12" t="inlineStr">
+        <is>
+          <t>GYW-38</t>
+        </is>
+      </c>
+      <c r="C51" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D51" s="12" t="inlineStr">
+        <is>
+          <t>GYW,3/8 in. EHS (15,400 lbs)</t>
+        </is>
+      </c>
+      <c r="E51" s="12" t="inlineStr">
+        <is>
+          <t>FT</t>
+        </is>
+      </c>
+      <c r="F51" s="13" t="n">
+        <v>80</v>
+      </c>
+      <c r="G51" s="13" t="inlineStr"/>
+      <c r="H51" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B52" s="9" t="inlineStr">
+        <is>
+          <t>INS-15-D-S-C</t>
+        </is>
+      </c>
+      <c r="C52" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D52" s="9" t="inlineStr">
+        <is>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
+        </is>
+      </c>
+      <c r="E52" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F52" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10" t="inlineStr"/>
+      <c r="H52" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="12" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B53" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C53" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D53" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E53" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F53" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G53" s="13" t="inlineStr"/>
+      <c r="H53" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B54" s="9" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C45" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D45" s="9" t="inlineStr">
+      <c r="C54" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D54" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E45" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F45" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="10" t="inlineStr"/>
-      <c r="H45" s="11" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="12" t="inlineStr">
+      <c r="E54" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F54" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="10" t="inlineStr"/>
+      <c r="H54" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B46" s="12" t="inlineStr">
+      <c r="B55" s="12" t="inlineStr">
         <is>
           <t>SAA-DE-20</t>
         </is>
       </c>
-      <c r="C46" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D46" s="12" t="inlineStr">
+      <c r="C55" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D55" s="12" t="inlineStr">
         <is>
           <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
-      <c r="E46" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F46" s="13" t="n">
+      <c r="E55" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F55" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="G46" s="13" t="inlineStr"/>
-      <c r="H46" s="14" t="n">
-        <v>331.08</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="9" t="inlineStr">
+      <c r="G55" s="13" t="inlineStr"/>
+      <c r="H55" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B47" s="9" t="inlineStr">
+      <c r="B56" s="9" t="inlineStr">
         <is>
           <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
-      <c r="C47" s="9" t="inlineStr">
+      <c r="C56" s="9" t="inlineStr">
         <is>
           <t>Tran</t>
         </is>
       </c>
-      <c r="D47" s="9" t="inlineStr">
+      <c r="D56" s="9" t="inlineStr">
         <is>
           <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
-      <c r="E47" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F47" s="10" t="n">
+      <c r="E56" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F56" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="G47" s="10" t="inlineStr"/>
-      <c r="H47" s="11" t="n">
-        <v>391.66</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="12" t="inlineStr">
+      <c r="G56" s="10" t="inlineStr"/>
+      <c r="H56" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B48" s="12" t="inlineStr">
+      <c r="B57" s="12" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C57" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D57" s="12" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E57" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F57" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="13" t="inlineStr"/>
+      <c r="H57" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="inlineStr">
+        <is>
+          <t>Point 23</t>
+        </is>
+      </c>
+      <c r="B58" s="9" t="inlineStr">
         <is>
           <t>SVD-3-CV-C</t>
         </is>
       </c>
-      <c r="C48" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D48" s="12" t="inlineStr">
+      <c r="C58" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
         <is>
           <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E48" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F48" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="13" t="inlineStr"/>
-      <c r="H48" s="14" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="9" t="inlineStr">
+      <c r="E58" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F58" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="10" t="inlineStr"/>
+      <c r="H58" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="12" t="inlineStr">
         <is>
           <t>Point 23</t>
         </is>
       </c>
-      <c r="B49" s="9" t="inlineStr">
+      <c r="B59" s="12" t="inlineStr">
         <is>
           <t>SVD-SG2</t>
         </is>
       </c>
-      <c r="C49" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D49" s="9" t="inlineStr">
+      <c r="C59" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D59" s="12" t="inlineStr">
         <is>
           <t>SVD,Service Grip,#2</t>
         </is>
       </c>
-      <c r="E49" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F49" s="10" t="n">
+      <c r="E59" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F59" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="G49" s="10" t="inlineStr"/>
-      <c r="H49" s="11" t="n">
-        <v>2003.75</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="12" t="inlineStr">
-        <is>
-          <t>Point 24</t>
-        </is>
-      </c>
-      <c r="B50" s="12" t="inlineStr">
-        <is>
-          <t>DEC-20AL</t>
-        </is>
-      </c>
-      <c r="C50" s="12" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D50" s="12" t="inlineStr">
-        <is>
-          <t>DEC,#4 - #2/0 AA,AL,AS</t>
-        </is>
-      </c>
-      <c r="E50" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F50" s="13" t="n">
-        <v>10</v>
-      </c>
-      <c r="G50" s="13" t="inlineStr"/>
-      <c r="H50" s="14" t="n">
-        <v>951.5</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="9" t="inlineStr">
-        <is>
-          <t>Point 24</t>
-        </is>
-      </c>
-      <c r="B51" s="9" t="inlineStr">
-        <is>
-          <t>SAA-DE-20</t>
-        </is>
-      </c>
-      <c r="C51" s="9" t="inlineStr">
-        <is>
-          <t>Rem</t>
-        </is>
-      </c>
-      <c r="D51" s="9" t="inlineStr">
-        <is>
-          <t>SAA,DE Clamp #4-2/0</t>
-        </is>
-      </c>
-      <c r="E51" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F51" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="G51" s="10" t="inlineStr"/>
-      <c r="H51" s="11" t="n">
-        <v>103.2</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="12" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B52" s="12" t="inlineStr">
-        <is>
-          <t>BKT-AC18-F</t>
-        </is>
-      </c>
-      <c r="C52" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D52" s="12" t="inlineStr">
-        <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
-        </is>
-      </c>
-      <c r="E52" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F52" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="13" t="inlineStr"/>
-      <c r="H52" s="14" t="n">
-        <v>31.72</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="9" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B53" s="9" t="inlineStr">
-        <is>
-          <t>CND-S2O</t>
-        </is>
-      </c>
-      <c r="C53" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D53" s="9" t="inlineStr">
-        <is>
-          <t>CND,Stirrup #2 Open</t>
-        </is>
-      </c>
-      <c r="E53" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F53" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="10" t="inlineStr"/>
-      <c r="H53" s="11" t="n">
-        <v>27.6</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="12" t="inlineStr">
-        <is>
-          <t>Point 25</t>
-        </is>
-      </c>
-      <c r="B54" s="12" t="inlineStr">
-        <is>
-          <t>SWI-15-CO1-100-H</t>
-        </is>
-      </c>
-      <c r="C54" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D54" s="12" t="inlineStr">
-        <is>
-          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
-        </is>
-      </c>
-      <c r="E54" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F54" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="13" t="inlineStr"/>
-      <c r="H54" s="14" t="n">
-        <v>62.42</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="15" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="H55" s="16" t="n">
-        <v>7978.01</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="7" t="inlineStr">
-        <is>
-          <t>Friday (07/25/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="8" t="inlineStr">
-        <is>
-          <t>Point Number</t>
-        </is>
-      </c>
-      <c r="B59" s="8" t="inlineStr">
-        <is>
-          <t>Billable Unit Code</t>
-        </is>
-      </c>
-      <c r="C59" s="8" t="inlineStr">
-        <is>
-          <t>Work Type</t>
-        </is>
-      </c>
-      <c r="D59" s="8" t="inlineStr">
-        <is>
-          <t>Unit Description</t>
-        </is>
-      </c>
-      <c r="E59" s="8" t="inlineStr">
-        <is>
-          <t>Unit of Measure</t>
-        </is>
-      </c>
-      <c r="F59" s="8" t="inlineStr">
-        <is>
-          <t># Units</t>
-        </is>
-      </c>
-      <c r="G59" s="8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="H59" s="8" t="inlineStr">
-        <is>
-          <t>Pricing</t>
-        </is>
+      <c r="G59" s="13" t="inlineStr"/>
+      <c r="H59" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="inlineStr">
         <is>
-          <t>Point 16</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B60" s="9" t="inlineStr">
         <is>
-          <t>PLA-CUT</t>
+          <t>DEC-20AL</t>
         </is>
       </c>
       <c r="C60" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D60" s="9" t="inlineStr">
         <is>
-          <t>PLA,Cut Off Pole Top</t>
+          <t>DEC,#4 - #2/0 AA,AL,AS</t>
         </is>
       </c>
       <c r="E60" s="9" t="inlineStr">
@@ -2035,32 +2146,32 @@
         </is>
       </c>
       <c r="F60" s="10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G60" s="10" t="inlineStr"/>
       <c r="H60" s="11" t="n">
-        <v>216.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B61" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>INS-15-D-S-C</t>
         </is>
       </c>
       <c r="C61" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D61" s="12" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>INS,15kV,Deadend,Polymer,Corr</t>
         </is>
       </c>
       <c r="E61" s="12" t="inlineStr">
@@ -2069,32 +2180,32 @@
         </is>
       </c>
       <c r="F61" s="13" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G61" s="13" t="inlineStr"/>
       <c r="H61" s="14" t="n">
-        <v>143.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="inlineStr">
         <is>
-          <t>Point 15</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B62" s="9" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>PLD-EYE</t>
         </is>
       </c>
       <c r="C62" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D62" s="9" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>PLD,Eyebolt Deadend</t>
         </is>
       </c>
       <c r="E62" s="9" t="inlineStr">
@@ -2107,28 +2218,28 @@
       </c>
       <c r="G62" s="10" t="inlineStr"/>
       <c r="H62" s="11" t="n">
-        <v>47.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="12" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B63" s="12" t="inlineStr">
         <is>
-          <t>CNC-HTA-10</t>
+          <t>POL-40-5</t>
         </is>
       </c>
       <c r="C63" s="12" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D63" s="12" t="inlineStr">
         <is>
-          <t>Compression connector H-Tap Assembly 1/0</t>
+          <t>Pole,40ft,Class 5</t>
         </is>
       </c>
       <c r="E63" s="12" t="inlineStr">
@@ -2137,32 +2248,32 @@
         </is>
       </c>
       <c r="F63" s="13" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G63" s="13" t="inlineStr"/>
       <c r="H63" s="14" t="n">
-        <v>133.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="inlineStr">
         <is>
-          <t>Point 17</t>
+          <t>Point 24</t>
         </is>
       </c>
       <c r="B64" s="9" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>SAA-DE-20</t>
         </is>
       </c>
       <c r="C64" s="9" t="inlineStr">
         <is>
-          <t>Inst</t>
+          <t>Rem</t>
         </is>
       </c>
       <c r="D64" s="9" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
       <c r="E64" s="9" t="inlineStr">
@@ -2171,32 +2282,32 @@
         </is>
       </c>
       <c r="F64" s="10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G64" s="10" t="inlineStr"/>
       <c r="H64" s="11" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B65" s="12" t="inlineStr">
         <is>
-          <t>ALB-W-18-A-1-F</t>
+          <t>BKT-AC18-F</t>
         </is>
       </c>
       <c r="C65" s="12" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D65" s="12" t="inlineStr">
         <is>
-          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
       <c r="E65" s="12" t="inlineStr">
@@ -2209,28 +2320,28 @@
       </c>
       <c r="G65" s="13" t="inlineStr"/>
       <c r="H65" s="14" t="n">
-        <v>118.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B66" s="9" t="inlineStr">
         <is>
-          <t>ALT-400-HFMSGL</t>
+          <t>CND-HLC2</t>
         </is>
       </c>
       <c r="C66" s="9" t="inlineStr">
         <is>
-          <t>Tran</t>
+          <t>Inst</t>
         </is>
       </c>
       <c r="D66" s="9" t="inlineStr">
         <is>
-          <t>400W MultiVolt MH Fldlt,Slipfit,Grey,Pul</t>
+          <t>CND,Hot Line clamp #6-#2</t>
         </is>
       </c>
       <c r="E66" s="9" t="inlineStr">
@@ -2243,18 +2354,18 @@
       </c>
       <c r="G66" s="10" t="inlineStr"/>
       <c r="H66" s="11" t="n">
-        <v>128.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B67" s="12" t="inlineStr">
         <is>
-          <t>BKT-AC18-F</t>
+          <t>CND-S2O</t>
         </is>
       </c>
       <c r="C67" s="12" t="inlineStr">
@@ -2264,7 +2375,7 @@
       </c>
       <c r="D67" s="12" t="inlineStr">
         <is>
-          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+          <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
       <c r="E67" s="12" t="inlineStr">
@@ -2277,18 +2388,18 @@
       </c>
       <c r="G67" s="13" t="inlineStr"/>
       <c r="H67" s="14" t="n">
-        <v>31.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B68" s="9" t="inlineStr">
         <is>
-          <t>CND-S2O</t>
+          <t>EQL-1-4-C-4-C-LC1</t>
         </is>
       </c>
       <c r="C68" s="9" t="inlineStr">
@@ -2298,7 +2409,7 @@
       </c>
       <c r="D68" s="9" t="inlineStr">
         <is>
-          <t>CND,Stirrup #2 Open</t>
+          <t>EQL,1 Phase,#4,Sol,#4,Sol,100a C/O</t>
         </is>
       </c>
       <c r="E68" s="9" t="inlineStr">
@@ -2311,18 +2422,18 @@
       </c>
       <c r="G68" s="10" t="inlineStr"/>
       <c r="H68" s="11" t="n">
-        <v>27.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="12" t="inlineStr">
         <is>
-          <t>Point 13</t>
+          <t>Point 25</t>
         </is>
       </c>
       <c r="B69" s="12" t="inlineStr">
         <is>
-          <t>PLA-HDIG</t>
+          <t>SWI-15-CO1-100-H</t>
         </is>
       </c>
       <c r="C69" s="12" t="inlineStr">
@@ -2332,7 +2443,7 @@
       </c>
       <c r="D69" s="12" t="inlineStr">
         <is>
-          <t>PLA,Hand Dig or Additional  Excavation</t>
+          <t>SWI,15kV,Line Cutout 1PH,100A,Hook</t>
         </is>
       </c>
       <c r="E69" s="12" t="inlineStr">
@@ -2345,1022 +2456,1931 @@
       </c>
       <c r="G69" s="13" t="inlineStr"/>
       <c r="H69" s="14" t="n">
-        <v>648.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="9" t="inlineStr">
+      <c r="A70" s="15" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="H70" s="16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="7" t="inlineStr">
+        <is>
+          <t>Friday (07/25/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="8" t="inlineStr">
+        <is>
+          <t>Point Number</t>
+        </is>
+      </c>
+      <c r="B74" s="8" t="inlineStr">
+        <is>
+          <t>Billable Unit Code</t>
+        </is>
+      </c>
+      <c r="C74" s="8" t="inlineStr">
+        <is>
+          <t>Work Type</t>
+        </is>
+      </c>
+      <c r="D74" s="8" t="inlineStr">
+        <is>
+          <t>Unit Description</t>
+        </is>
+      </c>
+      <c r="E74" s="8" t="inlineStr">
+        <is>
+          <t>Unit of Measure</t>
+        </is>
+      </c>
+      <c r="F74" s="8" t="inlineStr">
+        <is>
+          <t># Units</t>
+        </is>
+      </c>
+      <c r="G74" s="8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="H74" s="8" t="inlineStr">
+        <is>
+          <t>Pricing</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B75" s="9" t="inlineStr">
+        <is>
+          <t>PLA-CUT</t>
+        </is>
+      </c>
+      <c r="C75" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D75" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Cut Off Pole Top</t>
+        </is>
+      </c>
+      <c r="E75" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F75" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="10" t="inlineStr"/>
+      <c r="H75" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="12" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B70" s="9" t="inlineStr">
+      <c r="B76" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C76" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D76" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E76" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F76" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="G76" s="13" t="inlineStr"/>
+      <c r="H76" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B77" s="9" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C77" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D77" s="9" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E77" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F77" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G77" s="10" t="inlineStr"/>
+      <c r="H77" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B78" s="12" t="inlineStr">
+        <is>
+          <t>CNC-HTA-10</t>
+        </is>
+      </c>
+      <c r="C78" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D78" s="12" t="inlineStr">
+        <is>
+          <t>Compression connector H-Tap Assembly 1/0</t>
+        </is>
+      </c>
+      <c r="E78" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F78" s="13" t="n">
+        <v>14</v>
+      </c>
+      <c r="G78" s="13" t="inlineStr"/>
+      <c r="H78" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B79" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C79" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D79" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E79" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F79" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="10" t="inlineStr"/>
+      <c r="H79" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B80" s="12" t="inlineStr">
+        <is>
+          <t>ALB-W-18-A-1-F</t>
+        </is>
+      </c>
+      <c r="C80" s="12" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D80" s="12" t="inlineStr">
+        <is>
+          <t>ALB,Wood mnt,18 in ,Alum,1Pos, Flood</t>
+        </is>
+      </c>
+      <c r="E80" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F80" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="13" t="inlineStr"/>
+      <c r="H80" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B81" s="9" t="inlineStr">
+        <is>
+          <t>ALT-400-HFMSGL</t>
+        </is>
+      </c>
+      <c r="C81" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D81" s="9" t="inlineStr">
+        <is>
+          <t>400W MultiVolt MH Fldlt,Slipfit,Grey,Pul</t>
+        </is>
+      </c>
+      <c r="E81" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F81" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G81" s="10" t="inlineStr"/>
+      <c r="H81" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B82" s="12" t="inlineStr">
+        <is>
+          <t>BKT-AC18-F</t>
+        </is>
+      </c>
+      <c r="C82" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D82" s="12" t="inlineStr">
+        <is>
+          <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
+        </is>
+      </c>
+      <c r="E82" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F82" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="13" t="inlineStr"/>
+      <c r="H82" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B83" s="9" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C83" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D83" s="9" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E83" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F83" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="10" t="inlineStr"/>
+      <c r="H83" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B84" s="12" t="inlineStr">
+        <is>
+          <t>CND-S2O</t>
+        </is>
+      </c>
+      <c r="C84" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D84" s="12" t="inlineStr">
+        <is>
+          <t>CND,Stirrup #2 Open</t>
+        </is>
+      </c>
+      <c r="E84" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F84" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="13" t="inlineStr"/>
+      <c r="H84" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B85" s="9" t="inlineStr">
+        <is>
+          <t>PLA-HDIG</t>
+        </is>
+      </c>
+      <c r="C85" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D85" s="9" t="inlineStr">
+        <is>
+          <t>PLA,Hand Dig or Additional  Excavation</t>
+        </is>
+      </c>
+      <c r="E85" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F85" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="10" t="inlineStr"/>
+      <c r="H85" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B86" s="12" t="inlineStr">
         <is>
           <t>GND-CR-4</t>
         </is>
       </c>
-      <c r="C70" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D70" s="9" t="inlineStr">
+      <c r="C86" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D86" s="12" t="inlineStr">
         <is>
           <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
-      <c r="E70" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F70" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="10" t="inlineStr"/>
-      <c r="H70" s="11" t="n">
-        <v>110.74</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="12" t="inlineStr">
+      <c r="E86" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F86" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G86" s="13" t="inlineStr"/>
+      <c r="H86" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B71" s="12" t="inlineStr">
+      <c r="B87" s="9" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C87" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D87" s="9" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E87" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F87" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G87" s="10" t="inlineStr"/>
+      <c r="H87" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B88" s="12" t="inlineStr">
         <is>
           <t>PLA-CUT</t>
         </is>
       </c>
-      <c r="C71" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D71" s="12" t="inlineStr">
+      <c r="C88" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D88" s="12" t="inlineStr">
         <is>
           <t>PLA,Cut Off Pole Top</t>
         </is>
       </c>
-      <c r="E71" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F71" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="13" t="inlineStr"/>
-      <c r="H71" s="14" t="n">
-        <v>216.17</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="9" t="inlineStr">
+      <c r="E88" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F88" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="13" t="inlineStr"/>
+      <c r="H88" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B72" s="9" t="inlineStr">
+      <c r="B89" s="9" t="inlineStr">
+        <is>
+          <t>LTD-APEC1KHM</t>
+        </is>
+      </c>
+      <c r="C89" s="9" t="inlineStr">
+        <is>
+          <t>Tran</t>
+        </is>
+      </c>
+      <c r="D89" s="9" t="inlineStr">
+        <is>
+          <t>LTD,Ar Lt,Ph Elec Cntr,1000W,Ht ProtMult</t>
+        </is>
+      </c>
+      <c r="E89" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F89" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="G89" s="10" t="inlineStr"/>
+      <c r="H89" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B90" s="12" t="inlineStr">
         <is>
           <t>PIN-15-PTP-K</t>
         </is>
       </c>
-      <c r="C72" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D72" s="9" t="inlineStr">
+      <c r="C90" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D90" s="12" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
-      <c r="E72" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F72" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" s="10" t="inlineStr"/>
-      <c r="H72" s="11" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="12" t="inlineStr">
+      <c r="E90" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F90" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G90" s="13" t="inlineStr"/>
+      <c r="H90" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B73" s="12" t="inlineStr">
+      <c r="B91" s="9" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C91" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D91" s="9" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E91" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F91" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" s="10" t="inlineStr"/>
+      <c r="H91" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B92" s="12" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C73" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D73" s="12" t="inlineStr">
+      <c r="C92" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D92" s="12" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E73" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F73" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="13" t="inlineStr"/>
-      <c r="H73" s="14" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="9" t="inlineStr">
+      <c r="E92" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F92" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="13" t="inlineStr"/>
+      <c r="H92" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B74" s="9" t="inlineStr">
+      <c r="B93" s="9" t="inlineStr">
         <is>
           <t>SAA-DE-20</t>
         </is>
       </c>
-      <c r="C74" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D74" s="9" t="inlineStr">
+      <c r="C93" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D93" s="9" t="inlineStr">
         <is>
           <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
-      <c r="E74" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F74" s="10" t="n">
+      <c r="E93" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F93" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="G74" s="10" t="inlineStr"/>
-      <c r="H74" s="11" t="n">
-        <v>165.54</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="12" t="inlineStr">
+      <c r="G93" s="10" t="inlineStr"/>
+      <c r="H93" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="12" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B75" s="12" t="inlineStr">
+      <c r="B94" s="12" t="inlineStr">
         <is>
           <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
-      <c r="C75" s="12" t="inlineStr">
+      <c r="C94" s="12" t="inlineStr">
         <is>
           <t>Tran</t>
         </is>
       </c>
-      <c r="D75" s="12" t="inlineStr">
+      <c r="D94" s="12" t="inlineStr">
         <is>
           <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
-      <c r="E75" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F75" s="13" t="n">
+      <c r="E94" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F94" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G75" s="13" t="inlineStr"/>
-      <c r="H75" s="14" t="n">
-        <v>783.3200000000001</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="9" t="inlineStr">
+      <c r="G94" s="13" t="inlineStr"/>
+      <c r="H94" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B76" s="9" t="inlineStr">
+      <c r="B95" s="9" t="inlineStr">
+        <is>
+          <t>SVC-VA</t>
+        </is>
+      </c>
+      <c r="C95" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D95" s="9" t="inlineStr">
+        <is>
+          <t>SVC-Virtual Asset Capitalization</t>
+        </is>
+      </c>
+      <c r="E95" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F95" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G95" s="10" t="inlineStr"/>
+      <c r="H95" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="12" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B96" s="12" t="inlineStr">
         <is>
           <t>SVD-3-CV-C</t>
         </is>
       </c>
-      <c r="C76" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D76" s="9" t="inlineStr">
+      <c r="C96" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D96" s="12" t="inlineStr">
         <is>
           <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E76" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F76" s="10" t="n">
+      <c r="E96" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F96" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="G76" s="10" t="inlineStr"/>
-      <c r="H76" s="11" t="n">
-        <v>110.36</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="12" t="inlineStr">
+      <c r="G96" s="13" t="inlineStr"/>
+      <c r="H96" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B77" s="12" t="inlineStr">
+      <c r="B97" s="9" t="inlineStr">
         <is>
           <t>SVD-SG2</t>
         </is>
       </c>
-      <c r="C77" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D77" s="12" t="inlineStr">
+      <c r="C97" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D97" s="9" t="inlineStr">
         <is>
           <t>SVD,Service Grip,#2</t>
         </is>
       </c>
-      <c r="E77" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F77" s="13" t="n">
+      <c r="E97" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F97" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="G77" s="13" t="inlineStr"/>
-      <c r="H77" s="14" t="n">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="9" t="inlineStr">
+      <c r="G97" s="10" t="inlineStr"/>
+      <c r="H97" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="12" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B78" s="9" t="inlineStr">
+      <c r="B98" s="12" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C98" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D98" s="12" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E98" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F98" s="13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G98" s="13" t="inlineStr"/>
+      <c r="H98" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="inlineStr">
+        <is>
+          <t>Point 13</t>
+        </is>
+      </c>
+      <c r="B99" s="9" t="inlineStr">
         <is>
           <t>XCO-15-100-7</t>
         </is>
       </c>
-      <c r="C78" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D78" s="9" t="inlineStr">
+      <c r="C99" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D99" s="9" t="inlineStr">
         <is>
           <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
-      <c r="E78" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F78" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" s="10" t="inlineStr"/>
-      <c r="H78" s="11" t="n">
-        <v>62.42</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="12" t="inlineStr">
+      <c r="E99" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F99" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G99" s="10" t="inlineStr"/>
+      <c r="H99" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="12" t="inlineStr">
         <is>
           <t>Point 13</t>
         </is>
       </c>
-      <c r="B79" s="12" t="inlineStr">
+      <c r="B100" s="12" t="inlineStr">
         <is>
           <t>XFR-25-72-120-1B</t>
         </is>
       </c>
-      <c r="C79" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D79" s="12" t="inlineStr">
+      <c r="C100" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D100" s="12" t="inlineStr">
         <is>
           <t>XFR,25KVA,7.2/12.4kVY,120/240,1BG</t>
         </is>
       </c>
-      <c r="E79" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F79" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" s="13" t="inlineStr"/>
-      <c r="H79" s="14" t="n">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="9" t="inlineStr">
+      <c r="E100" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F100" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G100" s="13" t="inlineStr"/>
+      <c r="H100" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="inlineStr">
         <is>
           <t>Point 14</t>
         </is>
       </c>
-      <c r="B80" s="9" t="inlineStr">
+      <c r="B101" s="9" t="inlineStr">
         <is>
           <t>BKT-AC18-F</t>
         </is>
       </c>
-      <c r="C80" s="9" t="inlineStr">
+      <c r="C101" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D80" s="9" t="inlineStr">
+      <c r="D101" s="9" t="inlineStr">
         <is>
           <t>BKT,Arrestor/CO 18in (1Ph),Fbrgls</t>
         </is>
       </c>
-      <c r="E80" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F80" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" s="10" t="inlineStr"/>
-      <c r="H80" s="11" t="n">
-        <v>17.37</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="12" t="inlineStr">
+      <c r="E101" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F101" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G101" s="10" t="inlineStr"/>
+      <c r="H101" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="12" t="inlineStr">
         <is>
           <t>Point 14</t>
         </is>
       </c>
-      <c r="B81" s="12" t="inlineStr">
+      <c r="B102" s="12" t="inlineStr">
+        <is>
+          <t>CND-HLC2</t>
+        </is>
+      </c>
+      <c r="C102" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D102" s="12" t="inlineStr">
+        <is>
+          <t>CND,Hot Line clamp #6-#2</t>
+        </is>
+      </c>
+      <c r="E102" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F102" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G102" s="13" t="inlineStr"/>
+      <c r="H102" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B103" s="9" t="inlineStr">
         <is>
           <t>CND-S2O</t>
         </is>
       </c>
-      <c r="C81" s="12" t="inlineStr">
+      <c r="C103" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D81" s="12" t="inlineStr">
+      <c r="D103" s="9" t="inlineStr">
         <is>
           <t>CND,Stirrup #2 Open</t>
         </is>
       </c>
-      <c r="E81" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F81" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" s="13" t="inlineStr"/>
-      <c r="H81" s="14" t="n">
-        <v>6.17</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="9" t="inlineStr">
+      <c r="E103" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F103" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G103" s="10" t="inlineStr"/>
+      <c r="H103" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="12" t="inlineStr">
         <is>
           <t>Point 14</t>
         </is>
       </c>
-      <c r="B82" s="9" t="inlineStr">
+      <c r="B104" s="12" t="inlineStr">
         <is>
           <t>EQL-1-4-C-2-S-X</t>
         </is>
       </c>
-      <c r="C82" s="9" t="inlineStr">
+      <c r="C104" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D82" s="9" t="inlineStr">
+      <c r="D104" s="12" t="inlineStr">
         <is>
           <t>EQL,1 Ph,#4,CU Sol,#2,CU Str,Xfr</t>
         </is>
       </c>
-      <c r="E82" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F82" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" s="10" t="inlineStr"/>
-      <c r="H82" s="11" t="n">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="12" t="inlineStr">
+      <c r="E104" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F104" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G104" s="13" t="inlineStr"/>
+      <c r="H104" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="inlineStr">
         <is>
           <t>Point 14</t>
         </is>
       </c>
-      <c r="B83" s="12" t="inlineStr">
+      <c r="B105" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C83" s="12" t="inlineStr">
+      <c r="C105" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D83" s="12" t="inlineStr">
+      <c r="D105" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E83" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F83" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" s="13" t="inlineStr"/>
-      <c r="H83" s="14" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="9" t="inlineStr">
+      <c r="E105" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F105" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G105" s="10" t="inlineStr"/>
+      <c r="H105" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="12" t="inlineStr">
         <is>
           <t>Point 14</t>
         </is>
       </c>
-      <c r="B84" s="9" t="inlineStr">
+      <c r="B106" s="12" t="inlineStr">
         <is>
           <t>PIN-15-PTP-K</t>
         </is>
       </c>
-      <c r="C84" s="9" t="inlineStr">
+      <c r="C106" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D84" s="9" t="inlineStr">
+      <c r="D106" s="12" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
-      <c r="E84" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F84" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" s="10" t="inlineStr"/>
-      <c r="H84" s="11" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="12" t="inlineStr">
+      <c r="E106" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F106" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G106" s="13" t="inlineStr"/>
+      <c r="H106" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="inlineStr">
         <is>
           <t>Point 14</t>
         </is>
       </c>
-      <c r="B85" s="12" t="inlineStr">
+      <c r="B107" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-5</t>
+        </is>
+      </c>
+      <c r="C107" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D107" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 5</t>
+        </is>
+      </c>
+      <c r="E107" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F107" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" s="10" t="inlineStr"/>
+      <c r="H107" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B108" s="12" t="inlineStr">
         <is>
           <t>SAA-3-CV</t>
         </is>
       </c>
-      <c r="C85" s="12" t="inlineStr">
+      <c r="C108" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D85" s="12" t="inlineStr">
+      <c r="D108" s="12" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
-      <c r="E85" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F85" s="13" t="n">
+      <c r="E108" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F108" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="G85" s="13" t="inlineStr"/>
-      <c r="H85" s="14" t="n">
-        <v>51.6</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="9" t="inlineStr">
+      <c r="G108" s="13" t="inlineStr"/>
+      <c r="H108" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="inlineStr">
         <is>
           <t>Point 14</t>
         </is>
       </c>
-      <c r="B86" s="9" t="inlineStr">
+      <c r="B109" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C109" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D109" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E109" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F109" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G109" s="10" t="inlineStr"/>
+      <c r="H109" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="12" t="inlineStr">
+        <is>
+          <t>Point 14</t>
+        </is>
+      </c>
+      <c r="B110" s="12" t="inlineStr">
         <is>
           <t>XCO-15-100-7</t>
         </is>
       </c>
-      <c r="C86" s="9" t="inlineStr">
+      <c r="C110" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D86" s="9" t="inlineStr">
+      <c r="D110" s="12" t="inlineStr">
         <is>
           <t>XCO,15kVPolymer,100 Amp,7kA</t>
         </is>
       </c>
-      <c r="E86" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F86" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G86" s="10" t="inlineStr"/>
-      <c r="H86" s="11" t="n">
-        <v>26.52</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="12" t="inlineStr">
+      <c r="E110" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F110" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G110" s="13" t="inlineStr"/>
+      <c r="H110" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B87" s="12" t="inlineStr">
+      <c r="B111" s="9" t="inlineStr">
         <is>
           <t>GND-CR-4</t>
         </is>
       </c>
-      <c r="C87" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D87" s="12" t="inlineStr">
+      <c r="C111" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D111" s="9" t="inlineStr">
         <is>
           <t>GND,Cu Clad Rod,#4</t>
         </is>
       </c>
-      <c r="E87" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F87" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" s="13" t="inlineStr"/>
-      <c r="H87" s="14" t="n">
-        <v>110.74</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="9" t="inlineStr">
+      <c r="E111" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F111" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G111" s="10" t="inlineStr"/>
+      <c r="H111" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="12" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B88" s="9" t="inlineStr">
+      <c r="B112" s="12" t="inlineStr">
+        <is>
+          <t>GND-MD</t>
+        </is>
+      </c>
+      <c r="C112" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D112" s="12" t="inlineStr">
+        <is>
+          <t>GND,Wire Mldg Only</t>
+        </is>
+      </c>
+      <c r="E112" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F112" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G112" s="13" t="inlineStr"/>
+      <c r="H112" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B113" s="9" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C88" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D88" s="9" t="inlineStr">
+      <c r="C113" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D113" s="9" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E88" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F88" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G88" s="10" t="inlineStr"/>
-      <c r="H88" s="11" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="12" t="inlineStr">
+      <c r="E113" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F113" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G113" s="10" t="inlineStr"/>
+      <c r="H113" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="12" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B89" s="12" t="inlineStr">
+      <c r="B114" s="12" t="inlineStr">
         <is>
           <t>PIN-15-PTP-K</t>
         </is>
       </c>
-      <c r="C89" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D89" s="12" t="inlineStr">
+      <c r="C114" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D114" s="12" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
-      <c r="E89" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F89" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" s="13" t="inlineStr"/>
-      <c r="H89" s="14" t="n">
-        <v>94.17</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="9" t="inlineStr">
+      <c r="E114" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F114" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G114" s="13" t="inlineStr"/>
+      <c r="H114" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B90" s="9" t="inlineStr">
+      <c r="B115" s="9" t="inlineStr">
         <is>
           <t>POL-40-2</t>
         </is>
       </c>
-      <c r="C90" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D90" s="9" t="inlineStr">
+      <c r="C115" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D115" s="9" t="inlineStr">
         <is>
           <t>Pole,40ft,Class 2</t>
         </is>
       </c>
-      <c r="E90" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F90" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G90" s="10" t="inlineStr"/>
-      <c r="H90" s="11" t="n">
-        <v>478.55</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="12" t="inlineStr">
+      <c r="E115" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F115" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G115" s="10" t="inlineStr"/>
+      <c r="H115" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="12" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B91" s="12" t="inlineStr">
+      <c r="B116" s="12" t="inlineStr">
         <is>
           <t>SAA-3-CV</t>
         </is>
       </c>
-      <c r="C91" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D91" s="12" t="inlineStr">
+      <c r="C116" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D116" s="12" t="inlineStr">
         <is>
           <t>SAA,3 inch,Clevis</t>
         </is>
       </c>
-      <c r="E91" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F91" s="13" t="n">
+      <c r="E116" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F116" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="G91" s="13" t="inlineStr"/>
-      <c r="H91" s="14" t="n">
-        <v>275.9</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="9" t="inlineStr">
+      <c r="G116" s="13" t="inlineStr"/>
+      <c r="H116" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B92" s="9" t="inlineStr">
+      <c r="B117" s="9" t="inlineStr">
         <is>
           <t>SVC-2-TP-ALA-RS</t>
         </is>
       </c>
-      <c r="C92" s="9" t="inlineStr">
+      <c r="C117" s="9" t="inlineStr">
         <is>
           <t>Tran</t>
         </is>
       </c>
-      <c r="D92" s="9" t="inlineStr">
+      <c r="D117" s="9" t="inlineStr">
         <is>
           <t>SVC,#2 AWG,Trip,Alum/Aly Neut,Res</t>
         </is>
       </c>
-      <c r="E92" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F92" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" s="10" t="inlineStr"/>
-      <c r="H92" s="11" t="n">
-        <v>195.83</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="12" t="inlineStr">
+      <c r="E117" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F117" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G117" s="10" t="inlineStr"/>
+      <c r="H117" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="12" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B93" s="12" t="inlineStr">
+      <c r="B118" s="12" t="inlineStr">
         <is>
           <t>PLA-HDIG</t>
         </is>
       </c>
-      <c r="C93" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D93" s="12" t="inlineStr">
+      <c r="C118" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D118" s="12" t="inlineStr">
         <is>
           <t>PLA,Hand Dig or Additional  Excavation</t>
         </is>
       </c>
-      <c r="E93" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F93" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" s="13" t="inlineStr"/>
-      <c r="H93" s="14" t="n">
-        <v>648.53</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="9" t="inlineStr">
+      <c r="E118" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F118" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G118" s="13" t="inlineStr"/>
+      <c r="H118" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B94" s="9" t="inlineStr">
+      <c r="B119" s="9" t="inlineStr">
         <is>
           <t>SVD-3-CV-C</t>
         </is>
       </c>
-      <c r="C94" s="9" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D94" s="9" t="inlineStr">
+      <c r="C119" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D119" s="9" t="inlineStr">
         <is>
           <t>SVD,3 inch,Clevis,Corr</t>
         </is>
       </c>
-      <c r="E94" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F94" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G94" s="10" t="inlineStr"/>
-      <c r="H94" s="11" t="n">
-        <v>55.18</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="12" t="inlineStr">
+      <c r="E119" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F119" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G119" s="10" t="inlineStr"/>
+      <c r="H119" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="12" t="inlineStr">
         <is>
           <t>Point 15</t>
         </is>
       </c>
-      <c r="B95" s="12" t="inlineStr">
+      <c r="B120" s="12" t="inlineStr">
         <is>
           <t>SVD-SG2</t>
         </is>
       </c>
-      <c r="C95" s="12" t="inlineStr">
-        <is>
-          <t>Inst</t>
-        </is>
-      </c>
-      <c r="D95" s="12" t="inlineStr">
+      <c r="C120" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D120" s="12" t="inlineStr">
         <is>
           <t>SVD,Service Grip,#2</t>
         </is>
       </c>
-      <c r="E95" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F95" s="13" t="n">
+      <c r="E120" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F120" s="13" t="n">
         <v>5</v>
       </c>
-      <c r="G95" s="13" t="inlineStr"/>
-      <c r="H95" s="14" t="n">
-        <v>1431.25</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="9" t="inlineStr">
+      <c r="G120" s="13" t="inlineStr"/>
+      <c r="H120" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="inlineStr">
+        <is>
+          <t>Point 15</t>
+        </is>
+      </c>
+      <c r="B121" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C121" s="9" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D121" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E121" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F121" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="G121" s="10" t="inlineStr"/>
+      <c r="H121" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="12" t="inlineStr">
         <is>
           <t>Point 16</t>
         </is>
       </c>
-      <c r="B96" s="9" t="inlineStr">
+      <c r="B122" s="12" t="inlineStr">
         <is>
           <t>INS-15-P-S-C</t>
         </is>
       </c>
-      <c r="C96" s="9" t="inlineStr">
+      <c r="C122" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D96" s="9" t="inlineStr">
+      <c r="D122" s="12" t="inlineStr">
         <is>
           <t>INS,15kV,Pin,Silicon Polymer,Corr</t>
         </is>
       </c>
-      <c r="E96" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F96" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G96" s="10" t="inlineStr"/>
-      <c r="H96" s="11" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="12" t="inlineStr">
+      <c r="E122" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F122" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" s="13" t="inlineStr"/>
+      <c r="H122" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="inlineStr">
         <is>
           <t>Point 16</t>
         </is>
       </c>
-      <c r="B97" s="12" t="inlineStr">
+      <c r="B123" s="9" t="inlineStr">
         <is>
           <t>PIN-15-PTP-K</t>
         </is>
       </c>
-      <c r="C97" s="12" t="inlineStr">
+      <c r="C123" s="9" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D97" s="12" t="inlineStr">
+      <c r="D123" s="9" t="inlineStr">
         <is>
           <t>Pin,15kV,Pole top,Contaminated</t>
         </is>
       </c>
-      <c r="E97" s="12" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F97" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" s="13" t="inlineStr"/>
-      <c r="H97" s="14" t="n">
-        <v>31.08</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="9" t="inlineStr">
+      <c r="E123" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F123" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="G123" s="10" t="inlineStr"/>
+      <c r="H123" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="12" t="inlineStr">
         <is>
           <t>Point 16</t>
         </is>
       </c>
-      <c r="B98" s="9" t="inlineStr">
+      <c r="B124" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C124" s="12" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D124" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E124" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F124" s="13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G124" s="13" t="inlineStr"/>
+      <c r="H124" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B125" s="9" t="inlineStr">
+        <is>
+          <t>POL-40-5</t>
+        </is>
+      </c>
+      <c r="C125" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D125" s="9" t="inlineStr">
+        <is>
+          <t>Pole,40ft,Class 5</t>
+        </is>
+      </c>
+      <c r="E125" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F125" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" s="10" t="inlineStr"/>
+      <c r="H125" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="12" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B126" s="12" t="inlineStr">
         <is>
           <t>SAA-DE-20</t>
         </is>
       </c>
-      <c r="C98" s="9" t="inlineStr">
+      <c r="C126" s="12" t="inlineStr">
         <is>
           <t>Rem</t>
         </is>
       </c>
-      <c r="D98" s="9" t="inlineStr">
+      <c r="D126" s="12" t="inlineStr">
         <is>
           <t>SAA,DE Clamp #4-2/0</t>
         </is>
       </c>
-      <c r="E98" s="9" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="F98" s="10" t="n">
+      <c r="E126" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F126" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="G98" s="10" t="inlineStr"/>
-      <c r="H98" s="11" t="n">
-        <v>68.8</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="15" t="inlineStr">
+      <c r="G126" s="13" t="inlineStr"/>
+      <c r="H126" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="inlineStr">
+        <is>
+          <t>Point 16</t>
+        </is>
+      </c>
+      <c r="B127" s="9" t="inlineStr">
+        <is>
+          <t>TIE-4-ALH-F</t>
+        </is>
+      </c>
+      <c r="C127" s="9" t="inlineStr">
+        <is>
+          <t>Rem</t>
+        </is>
+      </c>
+      <c r="D127" s="9" t="inlineStr">
+        <is>
+          <t>TIE,4 AWG,AL Hand Tie,F Neck</t>
+        </is>
+      </c>
+      <c r="E127" s="9" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F127" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G127" s="10" t="inlineStr"/>
+      <c r="H127" s="11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="12" t="inlineStr">
+        <is>
+          <t>Point 17</t>
+        </is>
+      </c>
+      <c r="B128" s="12" t="inlineStr">
+        <is>
+          <t>PLD-EYE</t>
+        </is>
+      </c>
+      <c r="C128" s="12" t="inlineStr">
+        <is>
+          <t>Inst</t>
+        </is>
+      </c>
+      <c r="D128" s="12" t="inlineStr">
+        <is>
+          <t>PLD,Eyebolt Deadend</t>
+        </is>
+      </c>
+      <c r="E128" s="12" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="F128" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" s="13" t="inlineStr"/>
+      <c r="H128" s="14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="15" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="H99" s="16" t="n">
-        <v>9340.5</v>
+      <c r="H129" s="16" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A99:G99"/>
     <mergeCell ref="G10:I10"/>
+    <mergeCell ref="A129:G129"/>
+    <mergeCell ref="A70:G70"/>
     <mergeCell ref="F7:I7"/>
     <mergeCell ref="D2:I4"/>
     <mergeCell ref="D5:I5"/>
     <mergeCell ref="G13:I13"/>
-    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A73:H73"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A36:H36"/>
     <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A33:H33"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="A33:G33"/>
     <mergeCell ref="G11:I11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.5" footer="0.5"/>
